--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_3_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_3_sine_01_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.40000000000006</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5.10702591327572e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>7.993605777301127e-14</v>
+        <v>6.832141690000963e-15</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>49.9460810486386</v>
+        <v>50.18595411267058</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[38.304482090022496, 61.58768000725471]</t>
+          <t>[38.41135263940156, 61.9605555859396]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.731148640577885e-14</v>
+        <v>3.730349362740526e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>5.46229728115577e-14</v>
+        <v>7.460698725481052e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.666710817219809</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2767633807381946, 1.8050792624229635]</t>
+          <t>[1.4151318259413461, 1.9182898084982725]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.51495162074495</v>
+        <v>64.09125246705796</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.950410521201924, 66.07949272028799]</t>
+          <t>[56.83663200411439, 71.34587293000152]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.90650650650655</v>
+        <v>16.66378378378386</v>
       </c>
       <c r="X2" t="n">
-        <v>15.96476476476481</v>
+        <v>15.75567567567575</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.8482482482483</v>
+        <v>17.57189189189198</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.16000000000018</v>
+        <v>22.92000000000014</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.277953298739476e-10</v>
+        <v>8.890066460764956e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>3.316025648114361e-10</v>
+        <v>1.968027597574503e-09</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>38.991672888396</v>
+        <v>36.38537906412012</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[24.89253646370578, 53.090809313086226]</t>
+          <t>[22.48937728069793, 50.281380847542316]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.01864564841614e-07</v>
+        <v>7.641304948791117e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>2.01864564841614e-07</v>
+        <v>7.641304948791117e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>2.094395102393196</v>
+        <v>1.993763505881811</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.7170266154755032, 2.4717635893108882]</t>
+          <t>[1.6038160694001942, 2.383710942363427]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>51.15358789434379</v>
+        <v>60.79076573097927</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[43.608968596324395, 58.69820719236319]</t>
+          <t>[53.35299368046535, 68.2285377814932]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.44000000000012</v>
+        <v>15.64708708708718</v>
       </c>
       <c r="X3" t="n">
-        <v>14.04900900900912</v>
+        <v>14.22462462462471</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.83099099099112</v>
+        <v>17.06954954954966</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_3_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_3_sine_01_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.68000000000011</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.887379141862766e-15</v>
       </c>
       <c r="H2" t="n">
-        <v>6.832141690000963e-15</v>
+        <v>2.821272627282751e-14</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>50.18595411267058</v>
+        <v>48.70986318150631</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[38.41135263940156, 61.9605555859396]</t>
+          <t>[37.530419760241635, 59.88930660277098]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.730349362740526e-14</v>
+        <v>1.287858708565182e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>2.575717417130363e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.666710817219809</v>
+        <v>1.641552918091965</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4151318259413461, 1.9182898084982725]</t>
+          <t>[1.3773949772495815, 1.9057108589343486]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>64.09125246705796</v>
+        <v>63.42065004999645</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[56.83663200411439, 71.34587293000152]</t>
+          <t>[56.20479916909747, 70.63650093089544]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.66378378378386</v>
+        <v>16.82846846846855</v>
       </c>
       <c r="X2" t="n">
-        <v>15.75567567567575</v>
+        <v>15.87075075075084</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.57189189189198</v>
+        <v>17.78618618618627</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.92000000000014</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>8.890066460764956e-10</v>
+        <v>5.139185743630037e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.968027597574503e-09</v>
+        <v>1.076021477433471e-09</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>36.38537906412012</v>
+        <v>37.31958425875074</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[22.48937728069793, 50.281380847542316]</t>
+          <t>[23.606974786171875, 51.0321937313296]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7.641304948791117e-07</v>
+        <v>3.01911422972978e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>7.641304948791117e-07</v>
+        <v>3.01911422972978e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>1.993763505881811</v>
+        <v>1.943447707626119</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.6038160694001942, 2.383710942363427]</t>
+          <t>[1.528342372016657, 2.35855304323558]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S3" t="n">
-        <v>60.79076573097927</v>
+        <v>63.99746472096475</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.35299368046535, 68.2285377814932]</t>
+          <t>[56.500337284630874, 71.49459215729863]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.64708708708718</v>
+        <v>15.92042042042053</v>
       </c>
       <c r="X3" t="n">
-        <v>14.22462462462471</v>
+        <v>14.3975975975977</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.06954954954966</v>
+        <v>17.44324324324337</v>
       </c>
     </row>
   </sheetData>
